--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2138.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2138.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.048459348632147</v>
+        <v>0.5795122385025024</v>
       </c>
       <c r="B1">
-        <v>3.036369485167182</v>
+        <v>1.186717510223389</v>
       </c>
       <c r="C1">
-        <v>1.15592966298462</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.7350697054074037</v>
+        <v>2.738371133804321</v>
       </c>
       <c r="E1">
-        <v>0.5945403967996762</v>
+        <v>1.455952525138855</v>
       </c>
     </row>
   </sheetData>
